--- a/Phase 1/Burndown-chart-excel-france-2.xlsx
+++ b/Phase 1/Burndown-chart-excel-france-2.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Bureau\PIDEV-3A29-dynamic-developers\la validation soft skills\Vlidation GL Sprint 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aziz2\OneDrive\Bureau\Projet-Integration-Developpement-Front\Phase 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63E4263-7F1A-4592-AC98-3C3854BD251A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Burn-up chart" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -62,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -296,6 +295,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -342,19 +342,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -400,16 +400,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6</c:v>
@@ -496,6 +496,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -532,7 +533,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2116835065"/>
@@ -546,7 +547,7 @@
         <c:axId val="2116835065"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="35"/>
+          <c:max val="150"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -600,6 +601,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -636,7 +638,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="336935677"/>
@@ -653,6 +655,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -677,7 +680,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -710,7 +713,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -728,9 +731,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:ext cx="7143750" cy="3922490"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1" title="Graphique">
@@ -954,24 +957,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="10" max="11" width="21.5703125" customWidth="1"/>
+    <col min="10" max="11" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1002,7 +1005,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1019,7 +1022,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:27" ht="45.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:27" ht="45.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
@@ -1038,7 +1041,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -1048,7 +1051,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:27" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -1058,7 +1061,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -1084,7 +1087,7 @@
         <v>44232</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -1110,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="9">
         <v>2</v>
@@ -1134,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="9">
         <v>3</v>
@@ -1158,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="9">
         <v>4</v>
@@ -1182,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="9">
         <v>5</v>
@@ -1206,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="9">
         <v>6</v>
@@ -1230,7 +1233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="9">
         <v>7</v>
@@ -1254,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="9">
         <v>8</v>
@@ -1278,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>5</v>
       </c>
@@ -1308,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>6</v>
       </c>
@@ -1333,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -1343,7 +1346,7 @@
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -1353,7 +1356,7 @@
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -1363,7 +1366,7 @@
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -1373,7 +1376,7 @@
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -1383,7 +1386,7 @@
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -1393,7 +1396,7 @@
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -1403,7 +1406,7 @@
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -1413,7 +1416,7 @@
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -1423,7 +1426,7 @@
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -1433,7 +1436,7 @@
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -1443,7 +1446,7 @@
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -1453,7 +1456,7 @@
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -1463,7 +1466,7 @@
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -1473,7 +1476,7 @@
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -1483,7 +1486,7 @@
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -1493,7 +1496,7 @@
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
     </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -1503,7 +1506,7 @@
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -1513,7 +1516,7 @@
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -1523,7 +1526,7 @@
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -1533,7 +1536,7 @@
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
     </row>
-    <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D38" s="13" t="s">
         <v>7</v>
       </c>
@@ -1541,47 +1544,47 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D39" s="9">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="E39" s="9">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D40" s="9">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="E40" s="9">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D41" s="9">
+        <v>50</v>
+      </c>
+      <c r="E41" s="9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D42" s="9">
+        <v>25</v>
+      </c>
+      <c r="E42" s="9">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D41" s="9">
-        <v>18</v>
-      </c>
-      <c r="E41" s="9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D42" s="9">
-        <v>12</v>
-      </c>
-      <c r="E42" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D43" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E43" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D44" s="9">
         <v>0</v>
       </c>
@@ -1598,7 +1601,7 @@
     <mergeCell ref="A17:H36"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
